--- a/questionnaires/categories/sustainability.xlsx
+++ b/questionnaires/categories/sustainability.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\lkps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0E44A-733A-4C7D-9D24-AFA9DFA20065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D3757E-E432-4898-843B-4102DA12B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="2" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>value</t>
   </si>
@@ -28,79 +28,67 @@
     <t>title</t>
   </si>
   <si>
-    <t>parentvalue</t>
-  </si>
-  <si>
-    <t>attachmentname</t>
-  </si>
-  <si>
-    <t>Increased Use of a new technology/tool or technique in a specific sector</t>
-  </si>
-  <si>
-    <t>Adoption of Plans/Policies/Programmes or Technical Standards by National/Regional Entities</t>
+    <t>Standardization and procedures in alignment with international best practices applied</t>
+  </si>
+  <si>
+    <t>Development of national or regional education programmes</t>
+  </si>
+  <si>
+    <t>Increased use of a new technology/tool or technique in a specific sector</t>
+  </si>
+  <si>
+    <t>National programmes promoting new technology</t>
   </si>
   <si>
     <t>Creation of new Institution/ Laboratory/Education Centres</t>
   </si>
   <si>
-    <t>Use of Data to inform policies/regulatory bodies. / Global data Networks</t>
+    <t>Delivery of regulatory activities in line with adopted safety standards and regulatory compliance requirements</t>
+  </si>
+  <si>
+    <t>Safety and security issues are given high priority in decision-making.</t>
   </si>
   <si>
     <t>New profession recognized/ More professionals in the workforce</t>
   </si>
   <si>
+    <t>Use of Data to inform policies/regulatory bodies.</t>
+  </si>
+  <si>
+    <t>Join Global data Networks/ inform Global Data Networks</t>
+  </si>
+  <si>
     <t>The support has not been consolidated yet</t>
+  </si>
+  <si>
+    <t>Improve Quality of services in a specific sector/entities</t>
+  </si>
+  <si>
+    <t>Improve Technical Standards in a specific sector/entities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -108,66 +96,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,10 +165,6 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -260,15 +190,12 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -294,6 +221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,148 +398,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/questionnaires/categories/sustainability.xlsx
+++ b/questionnaires/categories/sustainability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D3757E-E432-4898-843B-4102DA12B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0225CAA3-63EE-4819-88B2-586727B121F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>value</t>
   </si>
@@ -65,6 +65,66 @@
   </si>
   <si>
     <t>Improve Technical Standards in a specific sector/entities</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Procedures in alignment with international best practices</t>
+  </si>
+  <si>
+    <t>Development of education programmes</t>
+  </si>
+  <si>
+    <t>Increased use of a new technology</t>
+  </si>
+  <si>
+    <t>Creation of new Institution</t>
+  </si>
+  <si>
+    <t>Join Global data Networks</t>
+  </si>
+  <si>
+    <t>Improve quality of services</t>
+  </si>
+  <si>
+    <t>Improve technical Standards</t>
+  </si>
+  <si>
+    <t>Delivery of regulatory activities</t>
+  </si>
+  <si>
+    <t>Safety and security issues are given high priority</t>
+  </si>
+  <si>
+    <t>More professionals in the workforce</t>
+  </si>
+  <si>
+    <t>Use of Data to inform policies</t>
+  </si>
+  <si>
+    <t>mechanism</t>
+  </si>
+  <si>
+    <t>Improve quality of procedures</t>
+  </si>
+  <si>
+    <t>Support professionalization</t>
+  </si>
+  <si>
+    <t>Introduce new technologies</t>
+  </si>
+  <si>
+    <t>Develop new protocols</t>
+  </si>
+  <si>
+    <t>Develop regulatory frameworks</t>
+  </si>
+  <si>
+    <t>Produce new data</t>
+  </si>
+  <si>
+    <t>Establish curricula in new profession</t>
   </si>
 </sst>
 </file>
@@ -398,123 +458,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>98</v>
       </c>
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
